--- a/nameList.xlsx
+++ b/nameList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HELLO_WORLD\Desktop\作业提交整理脚本\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HELLO_WORLD\Desktop\实验报告脚本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90D27BA-4793-4A12-8FFC-76D116F3DFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A6D502-BEDA-4D13-A429-D5B37CA810B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{62145A1C-8EFB-47BC-9053-6CE8D2BD5636}"/>
   </bookViews>
@@ -25,21 +25,265 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>123456</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+  <si>
+    <t>周治淦</t>
+  </si>
+  <si>
+    <t>黄华梓</t>
+  </si>
+  <si>
+    <t>沈挺雄</t>
+  </si>
+  <si>
+    <t>陈静梅</t>
+  </si>
+  <si>
+    <t>丁豪</t>
+  </si>
+  <si>
+    <t>赖炳富</t>
+  </si>
+  <si>
+    <t>农浩然</t>
+  </si>
+  <si>
+    <t>苏焱</t>
+  </si>
+  <si>
+    <t>王文祥</t>
+  </si>
+  <si>
+    <t>胡尹淇</t>
+  </si>
+  <si>
+    <t>卢永勇</t>
+  </si>
+  <si>
+    <t>李季衡</t>
+  </si>
+  <si>
+    <t>胡海</t>
+  </si>
+  <si>
+    <t>于浩松</t>
+  </si>
+  <si>
+    <t>覃庆梁</t>
+  </si>
+  <si>
+    <t>吕兆新</t>
+  </si>
+  <si>
+    <t>马有福</t>
+  </si>
+  <si>
+    <t>张裕</t>
+  </si>
+  <si>
+    <t>刘志和</t>
+  </si>
+  <si>
+    <t>周俊杰</t>
+  </si>
+  <si>
+    <t>李世奥</t>
+  </si>
+  <si>
+    <t>陈德</t>
+  </si>
+  <si>
+    <t>黄珑华</t>
+  </si>
+  <si>
+    <t>刘欢</t>
+  </si>
+  <si>
+    <t>莫崇江</t>
+  </si>
+  <si>
+    <t>雷霖</t>
+  </si>
+  <si>
+    <t>陆东东</t>
+  </si>
+  <si>
+    <t>张何其</t>
+  </si>
+  <si>
+    <t>马艺伟</t>
+  </si>
+  <si>
+    <t>文东来</t>
+  </si>
+  <si>
+    <t>韦绍葵</t>
+  </si>
+  <si>
+    <t>罗双禧</t>
+  </si>
+  <si>
+    <t>马竞宇</t>
+  </si>
+  <si>
+    <t>陈锦辉</t>
+  </si>
+  <si>
+    <t>李雪</t>
+  </si>
+  <si>
+    <t>刘天明</t>
+  </si>
+  <si>
+    <t>梁媛媛</t>
+  </si>
+  <si>
+    <t>梁明豪</t>
+  </si>
+  <si>
+    <t>赵霞</t>
+  </si>
+  <si>
+    <t>3192010810145</t>
+  </si>
+  <si>
+    <t>3192052051214</t>
+  </si>
+  <si>
+    <t>3192052051802</t>
+  </si>
+  <si>
+    <t>3192052051803</t>
+  </si>
+  <si>
+    <t>3192052051516</t>
+  </si>
+  <si>
+    <t>3192052051216</t>
+  </si>
+  <si>
+    <t>刘泽莹</t>
+  </si>
+  <si>
+    <t>3192010810120</t>
+  </si>
+  <si>
+    <t>曾炜焜</t>
+  </si>
+  <si>
+    <t>3192052051420</t>
+  </si>
+  <si>
+    <t>3192052051220</t>
+  </si>
+  <si>
+    <t>3192052051927</t>
+  </si>
+  <si>
+    <t>3192052051726</t>
+  </si>
+  <si>
+    <t>3192052051837</t>
+  </si>
+  <si>
+    <t>3192052051326</t>
+  </si>
+  <si>
+    <t>3192052051303</t>
+  </si>
+  <si>
+    <t>3192052051743</t>
+  </si>
+  <si>
+    <t>3192052051901</t>
+  </si>
+  <si>
+    <t>3192052051534</t>
+  </si>
+  <si>
+    <t>3192052051843</t>
+  </si>
+  <si>
+    <t>3192052051202</t>
+  </si>
+  <si>
+    <t>3192052051502</t>
+  </si>
+  <si>
+    <t>3192052051217</t>
+  </si>
+  <si>
+    <t>3192052051823</t>
+  </si>
+  <si>
+    <t>3192052051632</t>
+  </si>
+  <si>
+    <t>3192052051544</t>
+  </si>
+  <si>
+    <t>3192052051811</t>
+  </si>
+  <si>
+    <t>3192052051321</t>
+  </si>
+  <si>
+    <t>3192052051305</t>
+  </si>
+  <si>
+    <t>3192052051723</t>
+  </si>
+  <si>
+    <t>3192052051341</t>
+  </si>
+  <si>
+    <t>3192052051623</t>
+  </si>
+  <si>
+    <t>3192052051532</t>
+  </si>
+  <si>
+    <t>3192052051328</t>
+  </si>
+  <si>
+    <t>3192052051728</t>
+  </si>
+  <si>
+    <t>3192052051131</t>
+  </si>
+  <si>
+    <t>3192052051722</t>
+  </si>
+  <si>
+    <t>3192052051924</t>
+  </si>
+  <si>
+    <t>3192052051512</t>
+  </si>
+  <si>
+    <t>3192052051507</t>
+  </si>
+  <si>
+    <t>3192052051135</t>
+  </si>
+  <si>
+    <t>3192052051304</t>
+  </si>
+  <si>
+    <t>3192052051815</t>
+  </si>
+  <si>
+    <t>3192052051543</t>
+  </si>
+  <si>
+    <t>潘明磊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1234567789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
+    <t>朱焕媛</t>
+  </si>
+  <si>
+    <t>3182052051135</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3946A218-BD67-456D-9C7A-C8BC4AF9B443}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -426,18 +670,346 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
